--- a/data/trans_bre/P54_A_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,22 +642,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,14; 17,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 6,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 18,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,19; 75,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,09%</t>
         </is>
       </c>
     </row>
@@ -722,27 +722,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 14,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,89; 2,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 5,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,74; 120,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,84; 89,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,11%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,99; 8,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 0,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 1,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,08; 157,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -911,10 +911,98 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-51,82%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 8,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-12,11; 0,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 3,34</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-23,56; 64,46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-91,5; 45,03</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-64,84; 784,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,34 +611,24 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,51</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-13,17%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,77%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>-5.509117603875374</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4617885471465022</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.893557819704395</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1316707306820018</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1194880917159394</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -637,204 +636,128 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-36,14; 17,93</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 6,57</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 18,57</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-63,19; 75,09</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-36.13642269459127</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.733660270682147</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.326675476516298</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.631908314869899</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.93437584855491</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.569508931842264</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>18.1903114413346</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.7508872685835406</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,51</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,63</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>34,84%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-51,4%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>73,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 14,14</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-24,89; 2,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 5,44</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-17,74; 120,95</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-93,84; 89,47</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.509872574646407</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.382930384760203</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.6097645763870434</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3484341611034017</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.505810934944383</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6169281425471251</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>15,12%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-69,29%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-32,11%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.290475905020444</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-20.1100241914217</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.501870649869347</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.177371046935764</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9618561500998761</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,99; 8,66</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 0,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 1,97</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-42,08; 157,38</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.14390333152442</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.095598414985323</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.170756794138366</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.209468198129337</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.8812270045124785</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +765,167 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.554111942699386</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.8088953784412614</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.351958775356094</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.151237660016245</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.6423597247452681</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.2171720314331654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.989764150088922</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.208664484207306</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.123364564102445</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.420836811156716</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.663339987722091</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.4623750944085702</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.125675903425945</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.573839465929884</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,28%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-51,82%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>80,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 8,73</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,11; 0,93</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 3,34</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-23,56; 64,46</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-91,5; 45,03</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-64,84; 784,52</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.920330432505138</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.602737983308077</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.982924879832772</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1127901221105567</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.5041293039186517</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.8954964179893322</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.211188182148108</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.0018631139603</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.8662875360118384</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2356350178799319</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.8955503773221517</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6163537474486853</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.725248564269963</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8305113123887017</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.030716172176831</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6446094336886673</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4445010713808417</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>7.81657600425674</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
